--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/ddi-cds/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5272873-0A52-7143-B112-F6BFE4067B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A78639-1040-3046-B86E-C35C07376A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="-19680" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E551" sqref="E551"/>
+      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12410,7 +12410,7 @@
         <v>1574</v>
       </c>
       <c r="D543">
-        <v>974196</v>
+        <v>19019044</v>
       </c>
       <c r="E543" s="1">
         <v>39491</v>
@@ -12536,7 +12536,7 @@
         <v>1575</v>
       </c>
       <c r="D549">
-        <v>974196</v>
+        <v>19019044</v>
       </c>
       <c r="E549" s="1">
         <v>39491</v>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/ddi-cds/patient_addition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ddi-cds\patient_addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A78639-1040-3046-B86E-C35C07376A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D35D0-C6C6-4F21-A906-7DCDB0A7B326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="-19680" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17175" yWindow="3165" windowWidth="20010" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -950,16 +950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N550"/>
+  <dimension ref="A1:N581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
+      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H579" sqref="H579"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>15</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>15</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>15</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>15</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>15</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>15</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>14</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>15</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>14</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>14</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>15</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>12</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>15</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>14</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>15</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>14</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>14</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>15</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>15</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>15</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>14</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>14</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>15</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>15</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>14</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>14</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>15</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>15</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>15</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>15</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>4132161</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>15</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>15</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>15</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>15</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>15</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>15</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>15</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>15</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>12</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>14</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>14</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>15</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>15</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>15</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>15</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>12</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>15</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>15</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>15</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>15</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>12</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>14</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>14</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>15</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>12</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>14</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>14</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>15</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>15</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>17</v>
       </c>
@@ -12574,6 +12574,653 @@
         <v>125</v>
       </c>
       <c r="H550">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551">
+        <v>1576</v>
+      </c>
+      <c r="C551">
+        <v>1940</v>
+      </c>
+      <c r="K551">
+        <v>1</v>
+      </c>
+      <c r="L551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>14</v>
+      </c>
+      <c r="B552">
+        <v>1576</v>
+      </c>
+      <c r="D552">
+        <v>739138</v>
+      </c>
+      <c r="E552" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F552" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553">
+        <v>1576</v>
+      </c>
+      <c r="D553">
+        <v>974166</v>
+      </c>
+      <c r="E553" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F553" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>13</v>
+      </c>
+      <c r="B554">
+        <v>1576</v>
+      </c>
+      <c r="E554" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F554" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H554">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>15</v>
+      </c>
+      <c r="B555">
+        <v>1576</v>
+      </c>
+      <c r="D555">
+        <v>739207</v>
+      </c>
+      <c r="E555" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F555" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I555" t="s">
+        <v>23</v>
+      </c>
+      <c r="J555" t="s">
+        <v>23</v>
+      </c>
+      <c r="M555" t="s">
+        <v>19</v>
+      </c>
+      <c r="N555" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>15</v>
+      </c>
+      <c r="B556">
+        <v>1576</v>
+      </c>
+      <c r="D556">
+        <v>19019044</v>
+      </c>
+      <c r="E556" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F556" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I556" t="s">
+        <v>23</v>
+      </c>
+      <c r="J556" t="s">
+        <v>23</v>
+      </c>
+      <c r="M556" t="s">
+        <v>19</v>
+      </c>
+      <c r="N556" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>17</v>
+      </c>
+      <c r="B557">
+        <v>1576</v>
+      </c>
+      <c r="D557">
+        <v>3019550</v>
+      </c>
+      <c r="E557" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G557">
+        <v>140</v>
+      </c>
+      <c r="H557">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>12</v>
+      </c>
+      <c r="B558">
+        <v>1577</v>
+      </c>
+      <c r="C558">
+        <v>1975</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="L558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>14</v>
+      </c>
+      <c r="B559">
+        <v>1577</v>
+      </c>
+      <c r="D559">
+        <v>739138</v>
+      </c>
+      <c r="E559" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F559" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>14</v>
+      </c>
+      <c r="B560">
+        <v>1577</v>
+      </c>
+      <c r="D560">
+        <v>974166</v>
+      </c>
+      <c r="E560" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F560" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>14</v>
+      </c>
+      <c r="B561">
+        <v>1577</v>
+      </c>
+      <c r="D561">
+        <v>740910</v>
+      </c>
+      <c r="E561" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F561" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>13</v>
+      </c>
+      <c r="B562">
+        <v>1577</v>
+      </c>
+      <c r="E562" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F562" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H562">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>15</v>
+      </c>
+      <c r="B563">
+        <v>1577</v>
+      </c>
+      <c r="D563">
+        <v>739207</v>
+      </c>
+      <c r="E563" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F563" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I563" t="s">
+        <v>23</v>
+      </c>
+      <c r="J563" t="s">
+        <v>23</v>
+      </c>
+      <c r="M563" t="s">
+        <v>19</v>
+      </c>
+      <c r="N563" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>15</v>
+      </c>
+      <c r="B564">
+        <v>1577</v>
+      </c>
+      <c r="D564">
+        <v>19019044</v>
+      </c>
+      <c r="E564" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F564" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I564" t="s">
+        <v>23</v>
+      </c>
+      <c r="J564" t="s">
+        <v>23</v>
+      </c>
+      <c r="M564" t="s">
+        <v>19</v>
+      </c>
+      <c r="N564" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>15</v>
+      </c>
+      <c r="B565">
+        <v>1577</v>
+      </c>
+      <c r="D565">
+        <v>42901705</v>
+      </c>
+      <c r="E565" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F565" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I565" t="s">
+        <v>23</v>
+      </c>
+      <c r="J565" t="s">
+        <v>23</v>
+      </c>
+      <c r="M565" t="s">
+        <v>19</v>
+      </c>
+      <c r="N565" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>17</v>
+      </c>
+      <c r="B566">
+        <v>1577</v>
+      </c>
+      <c r="D566">
+        <v>3019550</v>
+      </c>
+      <c r="E566" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G566">
+        <v>140</v>
+      </c>
+      <c r="H566">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>12</v>
+      </c>
+      <c r="B567">
+        <v>1578</v>
+      </c>
+      <c r="C567">
+        <v>1980</v>
+      </c>
+      <c r="K567">
+        <v>1</v>
+      </c>
+      <c r="L567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>14</v>
+      </c>
+      <c r="B568">
+        <v>1578</v>
+      </c>
+      <c r="D568">
+        <v>739138</v>
+      </c>
+      <c r="E568" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F568" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>14</v>
+      </c>
+      <c r="B569">
+        <v>1578</v>
+      </c>
+      <c r="D569">
+        <v>974166</v>
+      </c>
+      <c r="E569" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F569" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>13</v>
+      </c>
+      <c r="B570">
+        <v>1578</v>
+      </c>
+      <c r="E570" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F570" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H570">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>15</v>
+      </c>
+      <c r="B571">
+        <v>1578</v>
+      </c>
+      <c r="D571">
+        <v>739207</v>
+      </c>
+      <c r="E571" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F571" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I571" t="s">
+        <v>23</v>
+      </c>
+      <c r="J571" t="s">
+        <v>23</v>
+      </c>
+      <c r="M571" t="s">
+        <v>19</v>
+      </c>
+      <c r="N571" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>15</v>
+      </c>
+      <c r="B572">
+        <v>1578</v>
+      </c>
+      <c r="D572">
+        <v>19019044</v>
+      </c>
+      <c r="E572" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F572" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I572" t="s">
+        <v>23</v>
+      </c>
+      <c r="J572" t="s">
+        <v>23</v>
+      </c>
+      <c r="M572" t="s">
+        <v>19</v>
+      </c>
+      <c r="N572" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>16</v>
+      </c>
+      <c r="B573">
+        <v>1578</v>
+      </c>
+      <c r="D573">
+        <v>44835943</v>
+      </c>
+      <c r="E573" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F573" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>17</v>
+      </c>
+      <c r="B574">
+        <v>1578</v>
+      </c>
+      <c r="D574">
+        <v>3019550</v>
+      </c>
+      <c r="E574" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G574">
+        <v>140</v>
+      </c>
+      <c r="H574">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>12</v>
+      </c>
+      <c r="B575">
+        <v>1579</v>
+      </c>
+      <c r="C575">
+        <v>1980</v>
+      </c>
+      <c r="K575">
+        <v>1</v>
+      </c>
+      <c r="L575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>14</v>
+      </c>
+      <c r="B576">
+        <v>1579</v>
+      </c>
+      <c r="D576">
+        <v>739138</v>
+      </c>
+      <c r="E576" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F576" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>14</v>
+      </c>
+      <c r="B577">
+        <v>1579</v>
+      </c>
+      <c r="D577">
+        <v>974166</v>
+      </c>
+      <c r="E577" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F577" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>13</v>
+      </c>
+      <c r="B578">
+        <v>1579</v>
+      </c>
+      <c r="E578" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F578" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H578">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>15</v>
+      </c>
+      <c r="B579">
+        <v>1579</v>
+      </c>
+      <c r="D579">
+        <v>739207</v>
+      </c>
+      <c r="E579" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F579" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I579" t="s">
+        <v>23</v>
+      </c>
+      <c r="J579" t="s">
+        <v>23</v>
+      </c>
+      <c r="M579" t="s">
+        <v>19</v>
+      </c>
+      <c r="N579" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>15</v>
+      </c>
+      <c r="B580">
+        <v>1579</v>
+      </c>
+      <c r="D580">
+        <v>19019044</v>
+      </c>
+      <c r="E580" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F580" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I580" t="s">
+        <v>23</v>
+      </c>
+      <c r="J580" t="s">
+        <v>23</v>
+      </c>
+      <c r="M580" t="s">
+        <v>19</v>
+      </c>
+      <c r="N580" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>17</v>
+      </c>
+      <c r="B581">
+        <v>1579</v>
+      </c>
+      <c r="D581">
+        <v>3019550</v>
+      </c>
+      <c r="E581" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G581">
+        <v>140</v>
+      </c>
+      <c r="H581">
         <v>9557</v>
       </c>
     </row>
@@ -12584,6 +13231,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="26">
   <si>
     <t xml:space="preserve">INSERT_TYPE</t>
   </si>
@@ -177,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +188,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -211,12 +215,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A596" activeCellId="0" sqref="A596"/>
+      <selection pane="bottomLeft" activeCell="G610" activeCellId="0" sqref="G610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12806,7 +12810,303 @@
         <v>4171047</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B598" s="0" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D598" s="3" t="n">
+        <v>3005456</v>
+      </c>
+      <c r="E598" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="G598" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H598" s="0" t="n">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B599" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C599" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="K599" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L599" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B600" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>1398937</v>
+      </c>
+      <c r="E600" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F600" s="2" t="n">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B601" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D601" s="0" t="n">
+        <v>950370</v>
+      </c>
+      <c r="E601" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F601" s="2" t="n">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B602" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D602" s="0" t="n">
+        <v>797617</v>
+      </c>
+      <c r="E602" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F602" s="2" t="n">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B603" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>1354860</v>
+      </c>
+      <c r="E603" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F603" s="2" t="n">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B604" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="E604" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F604" s="2" t="n">
+        <v>39565</v>
+      </c>
+      <c r="H604" s="0" t="n">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B605" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D605" s="0" t="n">
+        <v>40223506</v>
+      </c>
+      <c r="E605" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F605" s="2" t="n">
+        <v>39565</v>
+      </c>
+      <c r="I605" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J605" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M605" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N605" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B606" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>43219718</v>
+      </c>
+      <c r="E606" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F606" s="2" t="n">
+        <v>39565</v>
+      </c>
+      <c r="I606" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J606" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M606" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N606" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B607" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D607" s="0" t="n">
+        <v>797637</v>
+      </c>
+      <c r="E607" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F607" s="2" t="n">
+        <v>39565</v>
+      </c>
+      <c r="I607" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J607" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M607" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N607" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B608" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D608" s="0" t="n">
+        <v>19022281</v>
+      </c>
+      <c r="E608" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="F608" s="2" t="n">
+        <v>39565</v>
+      </c>
+      <c r="G608" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I608" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J608" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M608" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N608" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B609" s="0" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D609" s="3" t="n">
+        <v>3005456</v>
+      </c>
+      <c r="E609" s="2" t="n">
+        <v>39491</v>
+      </c>
+      <c r="G609" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H609" s="0" t="n">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E610" s="2"/>
+      <c r="F610" s="2"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E611" s="2"/>
+      <c r="F611" s="2"/>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E612" s="2"/>
+      <c r="F612" s="2"/>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E613" s="2"/>
+      <c r="F613" s="2"/>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E614" s="2"/>
+      <c r="F614" s="2"/>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E615" s="2"/>
+      <c r="F615" s="2"/>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E616" s="2"/>
+      <c r="F616" s="2"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E617" s="2"/>
+      <c r="F617" s="2"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E618" s="2"/>
+      <c r="F618" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M487"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsibilla/Documents/Dev/ddi-cds/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFF5D0-9212-5041-A2A2-3BFE3859C0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA3042E-5BDC-3A48-847D-027EA2465406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -112,13 +112,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,6 +151,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,14 +184,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,11 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O632"/>
+  <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O626" sqref="O626"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D644" sqref="D644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19283,151 +19303,1056 @@
       <c r="O625" s="3"/>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A626" t="s">
+      <c r="A626" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B626">
+      <c r="B626" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C626" s="7">
+        <v>1980</v>
+      </c>
+      <c r="D626" s="7"/>
+      <c r="E626" s="7"/>
+      <c r="F626" s="7"/>
+      <c r="G626" s="7"/>
+      <c r="H626" s="7"/>
+      <c r="I626" s="7"/>
+      <c r="J626" s="7"/>
+      <c r="K626" s="7">
+        <v>1</v>
+      </c>
+      <c r="L626" s="7">
+        <v>1</v>
+      </c>
+      <c r="M626" s="7"/>
+      <c r="N626" s="7"/>
+      <c r="O626" s="7">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A627" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B627" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C627" s="7"/>
+      <c r="D627" s="7">
+        <v>797617</v>
+      </c>
+      <c r="E627" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F627" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G627" s="7"/>
+      <c r="H627" s="7"/>
+      <c r="I627" s="7"/>
+      <c r="J627" s="7"/>
+      <c r="K627" s="7"/>
+      <c r="L627" s="7"/>
+      <c r="M627" s="7"/>
+      <c r="N627" s="7"/>
+      <c r="O627" s="7"/>
+    </row>
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A628" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B628" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C628" s="7"/>
+      <c r="D628" s="7">
+        <v>753626</v>
+      </c>
+      <c r="E628" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F628" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G628" s="7"/>
+      <c r="H628" s="7"/>
+      <c r="I628" s="7"/>
+      <c r="J628" s="7"/>
+      <c r="K628" s="7"/>
+      <c r="L628" s="7"/>
+      <c r="M628" s="7"/>
+      <c r="N628" s="7"/>
+      <c r="O628" s="7"/>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A629" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B629" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+      <c r="E629" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F629" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G629" s="7"/>
+      <c r="H629" s="7">
+        <v>9201</v>
+      </c>
+      <c r="I629" s="7"/>
+      <c r="J629" s="7"/>
+      <c r="K629" s="7"/>
+      <c r="L629" s="7"/>
+      <c r="M629" s="7"/>
+      <c r="N629" s="7"/>
+      <c r="O629" s="7"/>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A630" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B630" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C630" s="7"/>
+      <c r="D630" s="7">
+        <v>797637</v>
+      </c>
+      <c r="E630" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F630" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G630" s="7"/>
+      <c r="H630" s="7"/>
+      <c r="I630" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J630" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K630" s="7"/>
+      <c r="L630" s="7"/>
+      <c r="M630" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N630" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O630" s="7"/>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A631" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B631" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C631" s="7"/>
+      <c r="D631" s="7">
+        <v>40220386</v>
+      </c>
+      <c r="E631" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F631" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G631" s="7"/>
+      <c r="H631" s="7"/>
+      <c r="I631" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J631" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K631" s="7"/>
+      <c r="L631" s="7"/>
+      <c r="M631" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N631" s="7">
+        <v>4171047</v>
+      </c>
+      <c r="O631" s="7"/>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A632" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B632" s="7">
+        <v>1586</v>
+      </c>
+      <c r="C632" s="7"/>
+      <c r="D632" s="7">
+        <v>4285746</v>
+      </c>
+      <c r="E632" s="8">
+        <v>39490</v>
+      </c>
+      <c r="F632" s="8">
+        <v>39494</v>
+      </c>
+      <c r="G632" s="7"/>
+      <c r="H632" s="7"/>
+      <c r="I632" s="7"/>
+      <c r="J632" s="7"/>
+      <c r="K632" s="7"/>
+      <c r="L632" s="7"/>
+      <c r="M632" s="7"/>
+      <c r="N632" s="7"/>
+      <c r="O632" s="7"/>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A633" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B633" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C633" s="7">
+        <v>1980</v>
+      </c>
+      <c r="D633" s="7"/>
+      <c r="E633" s="7"/>
+      <c r="F633" s="7"/>
+      <c r="G633" s="7"/>
+      <c r="H633" s="7"/>
+      <c r="I633" s="7"/>
+      <c r="J633" s="7"/>
+      <c r="K633" s="7">
+        <v>1</v>
+      </c>
+      <c r="L633" s="7">
+        <v>1</v>
+      </c>
+      <c r="M633" s="7"/>
+      <c r="N633" s="7"/>
+      <c r="O633" s="7">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A634" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B634" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C634" s="7"/>
+      <c r="D634" s="7">
+        <v>797617</v>
+      </c>
+      <c r="E634" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F634" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G634" s="7"/>
+      <c r="H634" s="7"/>
+      <c r="I634" s="7"/>
+      <c r="J634" s="7"/>
+      <c r="K634" s="7"/>
+      <c r="L634" s="7"/>
+      <c r="M634" s="7"/>
+      <c r="N634" s="7"/>
+      <c r="O634" s="7"/>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A635" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B635" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C635" s="7"/>
+      <c r="D635" s="7">
+        <v>753626</v>
+      </c>
+      <c r="E635" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F635" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G635" s="7"/>
+      <c r="H635" s="7"/>
+      <c r="I635" s="7"/>
+      <c r="J635" s="7"/>
+      <c r="K635" s="7"/>
+      <c r="L635" s="7"/>
+      <c r="M635" s="7"/>
+      <c r="N635" s="7"/>
+      <c r="O635" s="7"/>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A636" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B636" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C636" s="7"/>
+      <c r="D636" s="7"/>
+      <c r="E636" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F636" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G636" s="7"/>
+      <c r="H636" s="7">
+        <v>9201</v>
+      </c>
+      <c r="I636" s="7"/>
+      <c r="J636" s="7"/>
+      <c r="K636" s="7"/>
+      <c r="L636" s="7"/>
+      <c r="M636" s="7"/>
+      <c r="N636" s="7"/>
+      <c r="O636" s="7"/>
+    </row>
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A637" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B637" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C637" s="7"/>
+      <c r="D637" s="7">
+        <v>797637</v>
+      </c>
+      <c r="E637" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F637" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G637" s="7"/>
+      <c r="H637" s="7"/>
+      <c r="I637" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J637" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K637" s="7"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N637" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O637" s="7"/>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A638" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B638" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C638" s="7"/>
+      <c r="D638" s="7">
+        <v>40220386</v>
+      </c>
+      <c r="E638" s="8">
+        <v>39491</v>
+      </c>
+      <c r="F638" s="8">
+        <v>39565</v>
+      </c>
+      <c r="G638" s="7"/>
+      <c r="H638" s="7"/>
+      <c r="I638" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J638" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K638" s="7"/>
+      <c r="L638" s="7"/>
+      <c r="M638" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N638" s="7">
+        <v>4171047</v>
+      </c>
+      <c r="O638" s="7"/>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A639" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B639" s="7">
+        <v>1587</v>
+      </c>
+      <c r="C639" s="7"/>
+      <c r="D639" s="9">
+        <v>44833574</v>
+      </c>
+      <c r="E639" s="8">
+        <v>39490</v>
+      </c>
+      <c r="F639" s="8">
+        <v>39494</v>
+      </c>
+      <c r="G639" s="7"/>
+      <c r="H639" s="7"/>
+      <c r="I639" s="7"/>
+      <c r="J639" s="7"/>
+      <c r="K639" s="7"/>
+      <c r="L639" s="7"/>
+      <c r="M639" s="7"/>
+      <c r="N639" s="7"/>
+      <c r="O639" s="7"/>
+    </row>
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>14</v>
+      </c>
+      <c r="B640">
         <v>99991</v>
       </c>
-      <c r="C626">
+      <c r="C640">
         <v>1935</v>
       </c>
-      <c r="K626">
-        <v>1</v>
-      </c>
-      <c r="L626">
-        <v>1</v>
-      </c>
-      <c r="O626" s="2">
+      <c r="K640">
+        <v>1</v>
+      </c>
+      <c r="L640">
+        <v>1</v>
+      </c>
+      <c r="O640" s="2">
         <v>8532</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A627" t="s">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
         <v>16</v>
       </c>
-      <c r="B627">
+      <c r="B641">
         <v>99991</v>
       </c>
-      <c r="E627" s="4">
+      <c r="E641" s="4">
         <v>43467</v>
       </c>
-      <c r="F627" s="4">
+      <c r="F641" s="4">
         <v>43475</v>
       </c>
-      <c r="H627">
+      <c r="H641">
         <v>9201</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
-        <v>15</v>
-      </c>
-      <c r="B628">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>15</v>
+      </c>
+      <c r="B642">
         <v>99991</v>
       </c>
-      <c r="D628">
+      <c r="D642">
+        <v>19049105</v>
+      </c>
+      <c r="E642" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F642" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>15</v>
+      </c>
+      <c r="B643">
+        <v>99991</v>
+      </c>
+      <c r="D643">
         <v>970250</v>
       </c>
-      <c r="E628" s="4">
+      <c r="E643" s="4">
         <v>43467</v>
       </c>
-      <c r="F628" s="4">
+      <c r="F643" s="4">
         <v>43475</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A629" t="s">
-        <v>15</v>
-      </c>
-      <c r="B629">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>15</v>
+      </c>
+      <c r="B644">
         <v>99991</v>
       </c>
-      <c r="D629">
+      <c r="D644">
         <v>1335471</v>
       </c>
-      <c r="E629" s="4">
+      <c r="E644" s="4">
         <v>43467</v>
       </c>
-      <c r="F629" s="4">
+      <c r="F644" s="4">
         <v>43475</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A630" t="s">
-        <v>17</v>
-      </c>
-      <c r="B630">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>17</v>
+      </c>
+      <c r="B645">
         <v>99991</v>
       </c>
-      <c r="D630" s="6">
+      <c r="D645">
+        <v>19049376</v>
+      </c>
+      <c r="E645" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F645" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I645">
+        <v>30</v>
+      </c>
+      <c r="J645">
+        <v>30</v>
+      </c>
+      <c r="M645" t="s">
+        <v>18</v>
+      </c>
+      <c r="N645" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>17</v>
+      </c>
+      <c r="B646">
+        <v>99991</v>
+      </c>
+      <c r="D646" s="6">
         <v>19106647</v>
       </c>
-      <c r="E630" s="4">
+      <c r="E646" s="4">
         <v>43467</v>
       </c>
-      <c r="F630" s="4">
+      <c r="F646" s="4">
         <v>43475</v>
       </c>
-      <c r="I630">
-        <v>30</v>
-      </c>
-      <c r="J630">
-        <v>30</v>
-      </c>
-      <c r="M630" t="s">
+      <c r="I646">
+        <v>30</v>
+      </c>
+      <c r="J646">
+        <v>30</v>
+      </c>
+      <c r="M646" t="s">
         <v>18</v>
       </c>
-      <c r="N630" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A631" t="s">
-        <v>17</v>
-      </c>
-      <c r="B631">
+      <c r="N646" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>17</v>
+      </c>
+      <c r="B647">
         <v>99991</v>
       </c>
-      <c r="D631" s="6">
+      <c r="D647" s="6">
         <v>40171675</v>
       </c>
-      <c r="E631" s="4">
+      <c r="E647" s="4">
         <v>43467</v>
       </c>
-      <c r="F631" s="4">
+      <c r="F647" s="4">
         <v>43475</v>
       </c>
-      <c r="I631">
-        <v>30</v>
-      </c>
-      <c r="J631">
-        <v>30</v>
-      </c>
-      <c r="M631" t="s">
+      <c r="I647">
+        <v>30</v>
+      </c>
+      <c r="J647">
+        <v>30</v>
+      </c>
+      <c r="M647" t="s">
         <v>18</v>
       </c>
-      <c r="N631" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A632" t="s">
+      <c r="N647" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
         <v>23</v>
       </c>
-      <c r="B632">
+      <c r="B648">
         <v>99991</v>
       </c>
-      <c r="D632">
+      <c r="D648">
         <v>3005456</v>
       </c>
-      <c r="E632" s="4">
+      <c r="E648" s="4">
         <v>43467</v>
       </c>
-      <c r="G632">
+      <c r="F648" s="4">
+        <v>43476</v>
+      </c>
+      <c r="G648">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H632">
+      <c r="H648">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>14</v>
+      </c>
+      <c r="B649">
+        <v>99992</v>
+      </c>
+      <c r="C649">
+        <v>1935</v>
+      </c>
+      <c r="K649">
+        <v>1</v>
+      </c>
+      <c r="L649">
+        <v>1</v>
+      </c>
+      <c r="O649" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>16</v>
+      </c>
+      <c r="B650">
+        <v>99992</v>
+      </c>
+      <c r="E650" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F650" s="4">
+        <v>43475</v>
+      </c>
+      <c r="H650">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>15</v>
+      </c>
+      <c r="B651">
+        <v>99992</v>
+      </c>
+      <c r="D651">
+        <v>19049105</v>
+      </c>
+      <c r="E651" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F651" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>15</v>
+      </c>
+      <c r="B652">
+        <v>99992</v>
+      </c>
+      <c r="D652">
+        <v>970250</v>
+      </c>
+      <c r="E652" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F652" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>15</v>
+      </c>
+      <c r="B653">
+        <v>99992</v>
+      </c>
+      <c r="D653">
+        <v>1335471</v>
+      </c>
+      <c r="E653" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F653" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>17</v>
+      </c>
+      <c r="B654">
+        <v>99992</v>
+      </c>
+      <c r="D654">
+        <v>19049376</v>
+      </c>
+      <c r="E654" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F654" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I654">
+        <v>30</v>
+      </c>
+      <c r="J654">
+        <v>30</v>
+      </c>
+      <c r="M654" t="s">
+        <v>18</v>
+      </c>
+      <c r="N654" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>17</v>
+      </c>
+      <c r="B655">
+        <v>99992</v>
+      </c>
+      <c r="D655" s="6">
+        <v>19106647</v>
+      </c>
+      <c r="E655" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F655" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I655">
+        <v>30</v>
+      </c>
+      <c r="J655">
+        <v>30</v>
+      </c>
+      <c r="M655" t="s">
+        <v>18</v>
+      </c>
+      <c r="N655" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>17</v>
+      </c>
+      <c r="B656">
+        <v>99992</v>
+      </c>
+      <c r="D656" s="6">
+        <v>40171675</v>
+      </c>
+      <c r="E656" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F656" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I656">
+        <v>30</v>
+      </c>
+      <c r="J656">
+        <v>30</v>
+      </c>
+      <c r="M656" t="s">
+        <v>18</v>
+      </c>
+      <c r="N656" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>23</v>
+      </c>
+      <c r="B657">
+        <v>99992</v>
+      </c>
+      <c r="D657">
+        <v>3005456</v>
+      </c>
+      <c r="E657" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F657" s="4">
+        <v>43476</v>
+      </c>
+      <c r="G657">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H657">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>23</v>
+      </c>
+      <c r="B658">
+        <v>99992</v>
+      </c>
+      <c r="D658">
+        <v>3049187</v>
+      </c>
+      <c r="E658" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F658" s="4">
+        <v>43477</v>
+      </c>
+      <c r="G658">
+        <v>41</v>
+      </c>
+      <c r="H658">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>14</v>
+      </c>
+      <c r="B659">
+        <v>99993</v>
+      </c>
+      <c r="C659">
+        <v>1935</v>
+      </c>
+      <c r="K659">
+        <v>1</v>
+      </c>
+      <c r="L659">
+        <v>1</v>
+      </c>
+      <c r="O659" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660">
+        <v>99993</v>
+      </c>
+      <c r="E660" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F660" s="4">
+        <v>43475</v>
+      </c>
+      <c r="H660">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>15</v>
+      </c>
+      <c r="B661">
+        <v>99993</v>
+      </c>
+      <c r="D661">
+        <v>19049105</v>
+      </c>
+      <c r="E661" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F661" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>15</v>
+      </c>
+      <c r="B662">
+        <v>99993</v>
+      </c>
+      <c r="D662">
+        <v>970250</v>
+      </c>
+      <c r="E662" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F662" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>15</v>
+      </c>
+      <c r="B663">
+        <v>99993</v>
+      </c>
+      <c r="D663">
+        <v>1335471</v>
+      </c>
+      <c r="E663" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F663" s="4">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>17</v>
+      </c>
+      <c r="B664">
+        <v>99993</v>
+      </c>
+      <c r="D664">
+        <v>19049376</v>
+      </c>
+      <c r="E664" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F664" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I664">
+        <v>30</v>
+      </c>
+      <c r="J664">
+        <v>30</v>
+      </c>
+      <c r="M664" t="s">
+        <v>18</v>
+      </c>
+      <c r="N664" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>17</v>
+      </c>
+      <c r="B665">
+        <v>99993</v>
+      </c>
+      <c r="D665" s="6">
+        <v>19106647</v>
+      </c>
+      <c r="E665" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F665" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I665">
+        <v>30</v>
+      </c>
+      <c r="J665">
+        <v>30</v>
+      </c>
+      <c r="M665" t="s">
+        <v>18</v>
+      </c>
+      <c r="N665" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>17</v>
+      </c>
+      <c r="B666">
+        <v>99993</v>
+      </c>
+      <c r="D666" s="6">
+        <v>40171675</v>
+      </c>
+      <c r="E666" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F666" s="4">
+        <v>43475</v>
+      </c>
+      <c r="I666">
+        <v>30</v>
+      </c>
+      <c r="J666">
+        <v>30</v>
+      </c>
+      <c r="M666" t="s">
+        <v>18</v>
+      </c>
+      <c r="N666" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>23</v>
+      </c>
+      <c r="B667">
+        <v>99993</v>
+      </c>
+      <c r="D667">
+        <v>3005456</v>
+      </c>
+      <c r="E667" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F667" s="4">
+        <v>43476</v>
+      </c>
+      <c r="G667">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H667">
+        <v>9557</v>
+      </c>
+    </row>
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>23</v>
+      </c>
+      <c r="B668">
+        <v>99993</v>
+      </c>
+      <c r="D668">
+        <v>3049187</v>
+      </c>
+      <c r="E668" s="4">
+        <v>43467</v>
+      </c>
+      <c r="F668" s="4">
+        <v>43477</v>
+      </c>
+      <c r="G668">
+        <v>61</v>
+      </c>
+      <c r="H668">
         <v>9557</v>
       </c>
     </row>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsibilla/Documents/Dev/ddi-cds/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA3042E-5BDC-3A48-847D-027EA2465406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5A983-F212-C546-BF3A-D7FAB6229FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="41">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -107,12 +107,57 @@
   <si>
     <t>SEX_ID</t>
   </si>
+  <si>
+    <t>EXPLANATION_OF_USE_CASE</t>
+  </si>
+  <si>
+    <t>DRUG_DISPLAY</t>
+  </si>
+  <si>
+    <t>Colchicine</t>
+  </si>
+  <si>
+    <t>itraconazole 200 MG Oral Tablet</t>
+  </si>
+  <si>
+    <t>colchicine 0.6 MG Oral Capsule</t>
+  </si>
+  <si>
+    <t>itraconazole</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease, stage 2 (N18.2 ICD10)</t>
+  </si>
+  <si>
+    <t>Acute renal failure, unspecified (N17.9 ICD10)</t>
+  </si>
+  <si>
+    <t>ritonavir 100 MG Oral Capsule</t>
+  </si>
+  <si>
+    <t>ritonavir</t>
+  </si>
+  <si>
+    <t>Citalopram 40 mg</t>
+  </si>
+  <si>
+    <t>Citalopram</t>
+  </si>
+  <si>
+    <t>haloperidol 2 MG/ML Oral Solution</t>
+  </si>
+  <si>
+    <t>haloperidol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citalopram-QT Prolonging Agent </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -163,6 +208,12 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,6 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O668"/>
+  <dimension ref="A1:Q700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D644" sqref="D644"/>
+      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A698" sqref="A698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +587,7 @@
     <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +633,14 @@
       <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,7 +669,7 @@
         <v>8532</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -638,7 +696,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -665,7 +723,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -692,7 +750,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -719,7 +777,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -754,7 +812,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -789,7 +847,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,7 +882,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -855,7 +913,7 @@
         <v>8532</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -882,7 +940,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -909,7 +967,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -936,7 +994,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -963,7 +1021,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -998,7 +1056,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -20356,6 +20414,1019 @@
         <v>9557</v>
       </c>
     </row>
+    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B669" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C669" s="2">
+        <v>1945</v>
+      </c>
+      <c r="D669" s="3"/>
+      <c r="E669" s="3"/>
+      <c r="F669" s="3"/>
+      <c r="G669" s="3"/>
+      <c r="H669" s="3"/>
+      <c r="I669" s="3"/>
+      <c r="J669" s="3"/>
+      <c r="K669" s="2">
+        <v>1</v>
+      </c>
+      <c r="L669" s="2">
+        <v>1</v>
+      </c>
+      <c r="M669" s="3"/>
+      <c r="N669" s="3"/>
+      <c r="O669" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B670" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C670" s="3"/>
+      <c r="D670" s="3"/>
+      <c r="E670" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F670" s="5">
+        <v>44226</v>
+      </c>
+      <c r="G670" s="3"/>
+      <c r="H670" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I670" s="3"/>
+      <c r="J670" s="3"/>
+      <c r="K670" s="3"/>
+      <c r="L670" s="3"/>
+      <c r="M670" s="3"/>
+      <c r="N670" s="3"/>
+      <c r="O670" s="3"/>
+    </row>
+    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A671" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B671" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C671" s="3"/>
+      <c r="D671" s="2">
+        <v>19011033</v>
+      </c>
+      <c r="E671" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F671" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G671" s="3"/>
+      <c r="H671" s="3"/>
+      <c r="I671" s="3"/>
+      <c r="J671" s="3"/>
+      <c r="K671" s="3"/>
+      <c r="L671" s="3"/>
+      <c r="M671" s="3"/>
+      <c r="N671" s="3"/>
+      <c r="O671" s="3"/>
+    </row>
+    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B672" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C672" s="3"/>
+      <c r="D672" s="2">
+        <v>40163507</v>
+      </c>
+      <c r="E672" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F672" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G672" s="3"/>
+      <c r="H672" s="3"/>
+      <c r="I672" s="2">
+        <v>3</v>
+      </c>
+      <c r="J672" s="2">
+        <v>30</v>
+      </c>
+      <c r="K672" s="3"/>
+      <c r="L672" s="3"/>
+      <c r="M672" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N672" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O672" s="3"/>
+    </row>
+    <row r="673" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B673" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C673" s="3"/>
+      <c r="D673" s="2">
+        <v>970250</v>
+      </c>
+      <c r="E673" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F673" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G673" s="3"/>
+      <c r="H673" s="3"/>
+      <c r="I673" s="3"/>
+      <c r="J673" s="3"/>
+      <c r="K673" s="3"/>
+      <c r="L673" s="3"/>
+      <c r="M673" s="3"/>
+      <c r="N673" s="3"/>
+      <c r="O673" s="3"/>
+    </row>
+    <row r="674" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B674" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C674" s="3"/>
+      <c r="D674" s="10">
+        <v>970282</v>
+      </c>
+      <c r="E674" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F674" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G674" s="3"/>
+      <c r="H674" s="3"/>
+      <c r="I674" s="2">
+        <v>1</v>
+      </c>
+      <c r="J674" s="2">
+        <v>30</v>
+      </c>
+      <c r="K674" s="3"/>
+      <c r="L674" s="3"/>
+      <c r="M674" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N674" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O674" s="3"/>
+    </row>
+    <row r="675" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B675" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C675" s="3"/>
+      <c r="D675" s="2">
+        <v>1309799</v>
+      </c>
+      <c r="E675" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F675" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G675" s="3"/>
+      <c r="H675" s="3"/>
+      <c r="I675" s="3"/>
+      <c r="J675" s="3"/>
+      <c r="K675" s="3"/>
+      <c r="L675" s="3"/>
+      <c r="M675" s="3"/>
+      <c r="N675" s="3"/>
+      <c r="O675" s="3"/>
+    </row>
+    <row r="676" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B676" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C676" s="3"/>
+      <c r="D676" s="10">
+        <v>1309800</v>
+      </c>
+      <c r="E676" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F676" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G676" s="3"/>
+      <c r="H676" s="3"/>
+      <c r="I676" s="2">
+        <v>1</v>
+      </c>
+      <c r="J676" s="2">
+        <v>30</v>
+      </c>
+      <c r="K676" s="3"/>
+      <c r="L676" s="3"/>
+      <c r="M676" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N676" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O676" s="3"/>
+    </row>
+    <row r="677" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B677" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C677" s="3"/>
+      <c r="D677" s="2">
+        <v>1195492</v>
+      </c>
+      <c r="E677" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F677" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G677" s="3"/>
+      <c r="H677" s="3"/>
+      <c r="I677" s="3"/>
+      <c r="J677" s="3"/>
+      <c r="K677" s="3"/>
+      <c r="L677" s="3"/>
+      <c r="M677" s="3"/>
+      <c r="N677" s="3"/>
+      <c r="O677" s="3"/>
+    </row>
+    <row r="678" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B678" s="2">
+        <v>99994</v>
+      </c>
+      <c r="C678" s="3"/>
+      <c r="D678" s="10">
+        <v>1195496</v>
+      </c>
+      <c r="E678" s="5">
+        <v>44223</v>
+      </c>
+      <c r="F678" s="5">
+        <v>44223</v>
+      </c>
+      <c r="G678" s="3"/>
+      <c r="H678" s="3"/>
+      <c r="I678" s="2">
+        <v>1</v>
+      </c>
+      <c r="J678" s="2">
+        <v>30</v>
+      </c>
+      <c r="K678" s="3"/>
+      <c r="L678" s="3"/>
+      <c r="M678" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N678" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O678" s="3"/>
+    </row>
+    <row r="679" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B679" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C679" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D679" s="3"/>
+      <c r="E679" s="3"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
+      <c r="I679" s="3"/>
+      <c r="J679" s="3"/>
+      <c r="K679" s="2">
+        <v>1</v>
+      </c>
+      <c r="L679" s="2">
+        <v>1</v>
+      </c>
+      <c r="M679" s="3"/>
+      <c r="N679" s="3"/>
+      <c r="O679" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="680" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B680" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C680" s="3"/>
+      <c r="D680" s="3"/>
+      <c r="E680" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F680" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G680" s="3"/>
+      <c r="H680" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I680" s="3"/>
+      <c r="J680" s="3"/>
+      <c r="K680" s="3"/>
+      <c r="L680" s="3"/>
+      <c r="M680" s="3"/>
+      <c r="N680" s="3"/>
+      <c r="O680" s="3"/>
+    </row>
+    <row r="681" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B681" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C681" s="3"/>
+      <c r="D681" s="2">
+        <v>1101554</v>
+      </c>
+      <c r="E681" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F681" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G681" s="3"/>
+      <c r="H681" s="3"/>
+      <c r="I681" s="3"/>
+      <c r="J681" s="3"/>
+      <c r="K681" s="3"/>
+      <c r="L681" s="3"/>
+      <c r="M681" s="3"/>
+      <c r="N681" s="3"/>
+      <c r="O681" s="3"/>
+      <c r="P681" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="682" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B682" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C682" s="3"/>
+      <c r="D682" s="2">
+        <v>45776977</v>
+      </c>
+      <c r="E682" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F682" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G682" s="3"/>
+      <c r="H682" s="3"/>
+      <c r="I682" s="2">
+        <v>1</v>
+      </c>
+      <c r="J682" s="2">
+        <v>10</v>
+      </c>
+      <c r="K682" s="3"/>
+      <c r="L682" s="3"/>
+      <c r="M682" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N682" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O682" s="3"/>
+      <c r="P682" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="683" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B683" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C683" s="3"/>
+      <c r="D683" s="10">
+        <v>40184845</v>
+      </c>
+      <c r="E683" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F683" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G683" s="3"/>
+      <c r="H683" s="3"/>
+      <c r="I683" s="2">
+        <v>1</v>
+      </c>
+      <c r="J683" s="2">
+        <v>10</v>
+      </c>
+      <c r="K683" s="3"/>
+      <c r="L683" s="3"/>
+      <c r="M683" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N683" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O683" s="3"/>
+      <c r="P683" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="684" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B684" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C684" s="3"/>
+      <c r="D684" s="10">
+        <v>1703653</v>
+      </c>
+      <c r="E684" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F684" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G684" s="3"/>
+      <c r="H684" s="3"/>
+      <c r="I684" s="3"/>
+      <c r="J684" s="3"/>
+      <c r="K684" s="3"/>
+      <c r="L684" s="3"/>
+      <c r="M684" s="3"/>
+      <c r="N684" s="3"/>
+      <c r="O684" s="3"/>
+      <c r="P684" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="685" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B685" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C685" s="3"/>
+      <c r="D685" s="10">
+        <v>1421642</v>
+      </c>
+      <c r="E685" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F685" s="5">
+        <v>44336</v>
+      </c>
+      <c r="G685" s="3"/>
+      <c r="H685" s="3"/>
+      <c r="I685" s="3"/>
+      <c r="J685" s="3"/>
+      <c r="K685" s="3"/>
+      <c r="L685" s="3"/>
+      <c r="M685" s="3"/>
+      <c r="N685" s="3"/>
+      <c r="O685" s="3"/>
+      <c r="P685" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="686" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B686" s="2">
+        <v>99995</v>
+      </c>
+      <c r="C686" s="3"/>
+      <c r="D686" s="10">
+        <v>45553437</v>
+      </c>
+      <c r="E686" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F686" s="5">
+        <v>44335</v>
+      </c>
+      <c r="G686" s="3"/>
+      <c r="H686" s="3"/>
+      <c r="I686" s="3"/>
+      <c r="J686" s="3"/>
+      <c r="K686" s="3"/>
+      <c r="L686" s="3"/>
+      <c r="M686" s="3"/>
+      <c r="N686" s="3"/>
+      <c r="O686" s="3"/>
+      <c r="P686" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="687" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B687" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C687" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D687" s="3"/>
+      <c r="E687" s="3"/>
+      <c r="F687" s="3"/>
+      <c r="G687" s="3"/>
+      <c r="H687" s="3"/>
+      <c r="I687" s="3"/>
+      <c r="J687" s="3"/>
+      <c r="K687" s="2">
+        <v>1</v>
+      </c>
+      <c r="L687" s="2">
+        <v>1</v>
+      </c>
+      <c r="M687" s="3"/>
+      <c r="N687" s="3"/>
+      <c r="O687" s="2">
+        <v>8532</v>
+      </c>
+      <c r="P687" s="3"/>
+      <c r="Q687" s="3"/>
+    </row>
+    <row r="688" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B688" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C688" s="3"/>
+      <c r="D688" s="3"/>
+      <c r="E688" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F688" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G688" s="3"/>
+      <c r="H688" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I688" s="3"/>
+      <c r="J688" s="3"/>
+      <c r="K688" s="3"/>
+      <c r="L688" s="3"/>
+      <c r="M688" s="3"/>
+      <c r="N688" s="3"/>
+      <c r="O688" s="3"/>
+      <c r="P688" s="3"/>
+      <c r="Q688" s="3"/>
+    </row>
+    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B689" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C689" s="3"/>
+      <c r="D689" s="2">
+        <v>1101554</v>
+      </c>
+      <c r="E689" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F689" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G689" s="3"/>
+      <c r="H689" s="3"/>
+      <c r="I689" s="3"/>
+      <c r="J689" s="3"/>
+      <c r="K689" s="3"/>
+      <c r="L689" s="3"/>
+      <c r="M689" s="3"/>
+      <c r="N689" s="3"/>
+      <c r="O689" s="3"/>
+      <c r="P689" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q689" s="3"/>
+    </row>
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B690" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C690" s="3"/>
+      <c r="D690" s="2">
+        <v>45776977</v>
+      </c>
+      <c r="E690" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F690" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G690" s="3"/>
+      <c r="H690" s="3"/>
+      <c r="I690" s="2">
+        <v>1</v>
+      </c>
+      <c r="J690" s="2">
+        <v>10</v>
+      </c>
+      <c r="K690" s="3"/>
+      <c r="L690" s="3"/>
+      <c r="M690" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N690" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O690" s="3"/>
+      <c r="P690" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q690" s="3"/>
+    </row>
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B691" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C691" s="3"/>
+      <c r="D691" s="2">
+        <v>19082373</v>
+      </c>
+      <c r="E691" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F691" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G691" s="3"/>
+      <c r="H691" s="3"/>
+      <c r="I691" s="2">
+        <v>1</v>
+      </c>
+      <c r="J691" s="2">
+        <v>10</v>
+      </c>
+      <c r="K691" s="3"/>
+      <c r="L691" s="3"/>
+      <c r="M691" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N691" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O691" s="3"/>
+      <c r="P691" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q691" s="3"/>
+    </row>
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B692" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C692" s="3"/>
+      <c r="D692" s="2">
+        <v>1748921</v>
+      </c>
+      <c r="E692" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F692" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G692" s="3"/>
+      <c r="H692" s="3"/>
+      <c r="I692" s="3"/>
+      <c r="J692" s="3"/>
+      <c r="K692" s="3"/>
+      <c r="L692" s="3"/>
+      <c r="M692" s="3"/>
+      <c r="N692" s="3"/>
+      <c r="O692" s="3"/>
+      <c r="P692" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q692" s="3"/>
+    </row>
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B693" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C693" s="3"/>
+      <c r="D693" s="2">
+        <v>45567829</v>
+      </c>
+      <c r="E693" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F693" s="5">
+        <v>44336</v>
+      </c>
+      <c r="G693" s="3"/>
+      <c r="H693" s="3"/>
+      <c r="I693" s="3"/>
+      <c r="J693" s="3"/>
+      <c r="K693" s="3"/>
+      <c r="L693" s="3"/>
+      <c r="M693" s="3"/>
+      <c r="N693" s="3"/>
+      <c r="O693" s="3"/>
+      <c r="P693" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q693" s="3"/>
+    </row>
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B694" s="2">
+        <v>99996</v>
+      </c>
+      <c r="C694" s="3"/>
+      <c r="D694" s="2">
+        <v>45553437</v>
+      </c>
+      <c r="E694" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F694" s="5">
+        <v>44335</v>
+      </c>
+      <c r="G694" s="3"/>
+      <c r="H694" s="3"/>
+      <c r="I694" s="3"/>
+      <c r="J694" s="3"/>
+      <c r="K694" s="3"/>
+      <c r="L694" s="3"/>
+      <c r="M694" s="3"/>
+      <c r="N694" s="3"/>
+      <c r="O694" s="3"/>
+      <c r="P694" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q694" s="3"/>
+    </row>
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B695" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C695" s="2">
+        <v>1950</v>
+      </c>
+      <c r="D695" s="3"/>
+      <c r="E695" s="3"/>
+      <c r="F695" s="3"/>
+      <c r="G695" s="3"/>
+      <c r="H695" s="3"/>
+      <c r="I695" s="3"/>
+      <c r="J695" s="3"/>
+      <c r="K695" s="2">
+        <v>1</v>
+      </c>
+      <c r="L695" s="2">
+        <v>1</v>
+      </c>
+      <c r="M695" s="3"/>
+      <c r="N695" s="3"/>
+      <c r="O695" s="2">
+        <v>8532</v>
+      </c>
+      <c r="P695" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B696" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C696" s="3"/>
+      <c r="D696" s="2">
+        <v>797617</v>
+      </c>
+      <c r="E696" s="5">
+        <v>39491</v>
+      </c>
+      <c r="F696" s="5">
+        <v>39565</v>
+      </c>
+      <c r="G696" s="3"/>
+      <c r="H696" s="3"/>
+      <c r="I696" s="3"/>
+      <c r="J696" s="3"/>
+      <c r="K696" s="3"/>
+      <c r="L696" s="3"/>
+      <c r="M696" s="3"/>
+      <c r="N696" s="3"/>
+      <c r="O696" s="3"/>
+      <c r="P696" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B697" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C697" s="3"/>
+      <c r="D697" s="10">
+        <v>766529</v>
+      </c>
+      <c r="E697" s="5">
+        <v>39491</v>
+      </c>
+      <c r="F697" s="5">
+        <v>39565</v>
+      </c>
+      <c r="G697" s="3"/>
+      <c r="H697" s="3"/>
+      <c r="I697" s="3"/>
+      <c r="J697" s="3"/>
+      <c r="K697" s="3"/>
+      <c r="L697" s="3"/>
+      <c r="M697" s="3"/>
+      <c r="N697" s="3"/>
+      <c r="O697" s="3"/>
+      <c r="P697" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B698" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C698" s="3"/>
+      <c r="D698" s="3"/>
+      <c r="E698" s="5">
+        <v>39491</v>
+      </c>
+      <c r="F698" s="5">
+        <v>39565</v>
+      </c>
+      <c r="G698" s="3"/>
+      <c r="H698" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I698" s="3"/>
+      <c r="J698" s="3"/>
+      <c r="K698" s="3"/>
+      <c r="L698" s="3"/>
+      <c r="M698" s="3"/>
+      <c r="N698" s="3"/>
+      <c r="O698" s="3"/>
+    </row>
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B699" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C699" s="3"/>
+      <c r="D699" s="2">
+        <v>797637</v>
+      </c>
+      <c r="E699" s="5">
+        <v>39491</v>
+      </c>
+      <c r="F699" s="5">
+        <v>39565</v>
+      </c>
+      <c r="G699" s="3"/>
+      <c r="H699" s="3"/>
+      <c r="I699" s="2">
+        <v>60</v>
+      </c>
+      <c r="J699" s="2">
+        <v>30</v>
+      </c>
+      <c r="K699" s="3"/>
+      <c r="L699" s="3"/>
+      <c r="M699" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N699" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O699" s="3"/>
+      <c r="P699" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B700" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C700" s="3"/>
+      <c r="D700" s="10">
+        <v>766530</v>
+      </c>
+      <c r="E700" s="5">
+        <v>39491</v>
+      </c>
+      <c r="F700" s="5">
+        <v>39565</v>
+      </c>
+      <c r="G700" s="2"/>
+      <c r="H700" s="3"/>
+      <c r="I700" s="2">
+        <v>10</v>
+      </c>
+      <c r="J700" s="2">
+        <v>10</v>
+      </c>
+      <c r="K700" s="3"/>
+      <c r="L700" s="3"/>
+      <c r="M700" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N700" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O700" s="3"/>
+      <c r="P700" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M487" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsibilla/Documents/Dev/ddi-cds/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5A983-F212-C546-BF3A-D7FAB6229FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8ED79F-3E2C-A347-A424-62341CDB131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,12 +126,6 @@
     <t>itraconazole</t>
   </si>
   <si>
-    <t>Chronic kidney disease, stage 2 (N18.2 ICD10)</t>
-  </si>
-  <si>
-    <t>Acute renal failure, unspecified (N17.9 ICD10)</t>
-  </si>
-  <si>
     <t>ritonavir 100 MG Oral Capsule</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t xml:space="preserve">Citalopram-QT Prolonging Agent </t>
+  </si>
+  <si>
+    <t>Acute renal failure, unspecified (N17.9 ICD10-CN)</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease, stage 2 (N18.2 ICD10-CN)</t>
   </si>
 </sst>
 </file>
@@ -563,9 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q700"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A698" sqref="A698"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P693" sqref="P693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20937,7 +20937,7 @@
       <c r="N685" s="3"/>
       <c r="O685" s="3"/>
       <c r="P685" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="686" spans="1:17" x14ac:dyDescent="0.2">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="10">
-        <v>45553437</v>
+        <v>35209275</v>
       </c>
       <c r="E686" s="5">
         <v>44318</v>
@@ -20967,7 +20967,7 @@
       <c r="N686" s="3"/>
       <c r="O686" s="3"/>
       <c r="P686" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="687" spans="1:17" x14ac:dyDescent="0.2">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="O691" s="3"/>
       <c r="P691" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q691" s="3"/>
     </row>
@@ -21166,7 +21166,7 @@
       <c r="N692" s="3"/>
       <c r="O692" s="3"/>
       <c r="P692" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q692" s="3"/>
     </row>
@@ -21178,8 +21178,8 @@
         <v>99996</v>
       </c>
       <c r="C693" s="3"/>
-      <c r="D693" s="2">
-        <v>45567829</v>
+      <c r="D693" s="10">
+        <v>1421642</v>
       </c>
       <c r="E693" s="5">
         <v>44318</v>
@@ -21197,7 +21197,7 @@
       <c r="N693" s="3"/>
       <c r="O693" s="3"/>
       <c r="P693" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q693" s="3"/>
     </row>
@@ -21209,8 +21209,8 @@
         <v>99996</v>
       </c>
       <c r="C694" s="3"/>
-      <c r="D694" s="2">
-        <v>45553437</v>
+      <c r="D694" s="10">
+        <v>35209275</v>
       </c>
       <c r="E694" s="5">
         <v>44318</v>
@@ -21227,8 +21227,8 @@
       <c r="M694" s="3"/>
       <c r="N694" s="3"/>
       <c r="O694" s="3"/>
-      <c r="P694" s="2" t="s">
-        <v>32</v>
+      <c r="P694" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="Q694" s="3"/>
     </row>
@@ -21261,7 +21261,7 @@
         <v>8532</v>
       </c>
       <c r="P695" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="696" spans="1:17" x14ac:dyDescent="0.2">
@@ -21291,7 +21291,7 @@
       <c r="N696" s="3"/>
       <c r="O696" s="3"/>
       <c r="P696" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="697" spans="1:17" x14ac:dyDescent="0.2">
@@ -21321,7 +21321,7 @@
       <c r="N697" s="3"/>
       <c r="O697" s="3"/>
       <c r="P697" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="698" spans="1:17" x14ac:dyDescent="0.2">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O699" s="3"/>
       <c r="P699" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="700" spans="1:17" x14ac:dyDescent="0.2">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="O700" s="3"/>
       <c r="P700" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsibilla/Documents/Dev/ddi-cds/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8ED79F-3E2C-A347-A424-62341CDB131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE5BB7-344C-F74C-93C4-D51C873B62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="51">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>Chronic kidney disease, stage 2 (N18.2 ICD10-CN)</t>
+  </si>
+  <si>
+    <t>tizanidine 2 MG Oral Tablet</t>
+  </si>
+  <si>
+    <t>Tizanidine</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin 100 MG/ML Oral Suspension</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin</t>
+  </si>
+  <si>
+    <t>zafirlukast 10 MG Oral Tablet</t>
+  </si>
+  <si>
+    <t>zafirlukast</t>
+  </si>
+  <si>
+    <t>Fluvoxamine Maleate 25 MG Oral Tablet</t>
+  </si>
+  <si>
+    <t>Fluvoxamine</t>
+  </si>
+  <si>
+    <t>Phenylpropanolamine Hydrochloride 50 MG Chewable Tablet</t>
+  </si>
+  <si>
+    <t>Phenylpropanolamine</t>
   </si>
 </sst>
 </file>
@@ -561,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q700"/>
+  <dimension ref="A1:Q724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P693" sqref="P693"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F713" sqref="F713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21427,6 +21457,774 @@
         <v>36</v>
       </c>
     </row>
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B701" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C701" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D701" s="3"/>
+      <c r="E701" s="3"/>
+      <c r="F701" s="3"/>
+      <c r="G701" s="3"/>
+      <c r="H701" s="3"/>
+      <c r="I701" s="3"/>
+      <c r="J701" s="3"/>
+      <c r="K701" s="2">
+        <v>1</v>
+      </c>
+      <c r="L701" s="2">
+        <v>1</v>
+      </c>
+      <c r="M701" s="3"/>
+      <c r="N701" s="3"/>
+      <c r="O701" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B702" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C702" s="3"/>
+      <c r="D702" s="3"/>
+      <c r="E702" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F702" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G702" s="3"/>
+      <c r="H702" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I702" s="3"/>
+      <c r="J702" s="3"/>
+      <c r="K702" s="3"/>
+      <c r="L702" s="3"/>
+      <c r="M702" s="3"/>
+      <c r="N702" s="3"/>
+      <c r="O702" s="3"/>
+    </row>
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B703" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C703" s="3"/>
+      <c r="D703" s="10">
+        <v>778474</v>
+      </c>
+      <c r="E703" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F703" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G703" s="3"/>
+      <c r="H703" s="3"/>
+      <c r="I703" s="3"/>
+      <c r="J703" s="3"/>
+      <c r="K703" s="3"/>
+      <c r="L703" s="3"/>
+      <c r="M703" s="3"/>
+      <c r="N703" s="3"/>
+      <c r="O703" s="3"/>
+      <c r="P703" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B704" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C704" s="3"/>
+      <c r="D704" s="10">
+        <v>778478</v>
+      </c>
+      <c r="E704" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F704" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G704" s="3"/>
+      <c r="H704" s="3"/>
+      <c r="I704" s="2">
+        <v>1</v>
+      </c>
+      <c r="J704" s="2">
+        <v>10</v>
+      </c>
+      <c r="K704" s="3"/>
+      <c r="L704" s="3"/>
+      <c r="M704" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N704" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O704" s="3"/>
+      <c r="P704" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B705" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C705" s="3"/>
+      <c r="D705" s="10">
+        <v>19075391</v>
+      </c>
+      <c r="E705" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F705" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G705" s="3"/>
+      <c r="H705" s="3"/>
+      <c r="I705" s="2">
+        <v>1</v>
+      </c>
+      <c r="J705" s="2">
+        <v>10</v>
+      </c>
+      <c r="K705" s="3"/>
+      <c r="L705" s="3"/>
+      <c r="M705" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N705" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O705" s="3"/>
+      <c r="P705" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B706" s="2">
+        <v>100001</v>
+      </c>
+      <c r="C706" s="3"/>
+      <c r="D706" s="10">
+        <v>1797513</v>
+      </c>
+      <c r="E706" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F706" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G706" s="3"/>
+      <c r="H706" s="3"/>
+      <c r="I706" s="3"/>
+      <c r="J706" s="3"/>
+      <c r="K706" s="3"/>
+      <c r="L706" s="3"/>
+      <c r="M706" s="3"/>
+      <c r="N706" s="3"/>
+      <c r="O706" s="3"/>
+      <c r="P706" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B707" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C707" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D707" s="3"/>
+      <c r="E707" s="3"/>
+      <c r="F707" s="3"/>
+      <c r="G707" s="3"/>
+      <c r="H707" s="3"/>
+      <c r="I707" s="3"/>
+      <c r="J707" s="3"/>
+      <c r="K707" s="2">
+        <v>1</v>
+      </c>
+      <c r="L707" s="2">
+        <v>1</v>
+      </c>
+      <c r="M707" s="3"/>
+      <c r="N707" s="3"/>
+      <c r="O707" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B708" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C708" s="3"/>
+      <c r="D708" s="3"/>
+      <c r="E708" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F708" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G708" s="3"/>
+      <c r="H708" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I708" s="3"/>
+      <c r="J708" s="3"/>
+      <c r="K708" s="3"/>
+      <c r="L708" s="3"/>
+      <c r="M708" s="3"/>
+      <c r="N708" s="3"/>
+      <c r="O708" s="3"/>
+    </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B709" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C709" s="3"/>
+      <c r="D709" s="10">
+        <v>778474</v>
+      </c>
+      <c r="E709" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F709" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G709" s="3"/>
+      <c r="H709" s="3"/>
+      <c r="I709" s="3"/>
+      <c r="J709" s="3"/>
+      <c r="K709" s="3"/>
+      <c r="L709" s="3"/>
+      <c r="M709" s="3"/>
+      <c r="N709" s="3"/>
+      <c r="O709" s="3"/>
+      <c r="P709" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B710" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C710" s="3"/>
+      <c r="D710" s="10">
+        <v>778478</v>
+      </c>
+      <c r="E710" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F710" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G710" s="3"/>
+      <c r="H710" s="3"/>
+      <c r="I710" s="2">
+        <v>1</v>
+      </c>
+      <c r="J710" s="2">
+        <v>10</v>
+      </c>
+      <c r="K710" s="3"/>
+      <c r="L710" s="3"/>
+      <c r="M710" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N710" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O710" s="3"/>
+      <c r="P710" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B711" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C711" s="3"/>
+      <c r="D711" s="10">
+        <v>1111710</v>
+      </c>
+      <c r="E711" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F711" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G711" s="3"/>
+      <c r="H711" s="3"/>
+      <c r="I711" s="2">
+        <v>1</v>
+      </c>
+      <c r="J711" s="2">
+        <v>10</v>
+      </c>
+      <c r="K711" s="3"/>
+      <c r="L711" s="3"/>
+      <c r="M711" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N711" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O711" s="3"/>
+      <c r="P711" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B712" s="2">
+        <v>100002</v>
+      </c>
+      <c r="C712" s="3"/>
+      <c r="D712" s="10">
+        <v>1111706</v>
+      </c>
+      <c r="E712" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F712" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G712" s="3"/>
+      <c r="H712" s="3"/>
+      <c r="I712" s="3"/>
+      <c r="J712" s="3"/>
+      <c r="K712" s="3"/>
+      <c r="L712" s="3"/>
+      <c r="M712" s="3"/>
+      <c r="N712" s="3"/>
+      <c r="O712" s="3"/>
+      <c r="P712" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B713" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C713" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D713" s="3"/>
+      <c r="E713" s="3"/>
+      <c r="F713" s="3"/>
+      <c r="G713" s="3"/>
+      <c r="H713" s="3"/>
+      <c r="I713" s="3"/>
+      <c r="J713" s="3"/>
+      <c r="K713" s="2">
+        <v>1</v>
+      </c>
+      <c r="L713" s="2">
+        <v>1</v>
+      </c>
+      <c r="M713" s="3"/>
+      <c r="N713" s="3"/>
+      <c r="O713" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B714" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C714" s="3"/>
+      <c r="D714" s="3"/>
+      <c r="E714" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F714" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G714" s="3"/>
+      <c r="H714" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I714" s="3"/>
+      <c r="J714" s="3"/>
+      <c r="K714" s="3"/>
+      <c r="L714" s="3"/>
+      <c r="M714" s="3"/>
+      <c r="N714" s="3"/>
+      <c r="O714" s="3"/>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B715" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C715" s="3"/>
+      <c r="D715" s="10">
+        <v>778474</v>
+      </c>
+      <c r="E715" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F715" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G715" s="3"/>
+      <c r="H715" s="3"/>
+      <c r="I715" s="3"/>
+      <c r="J715" s="3"/>
+      <c r="K715" s="3"/>
+      <c r="L715" s="3"/>
+      <c r="M715" s="3"/>
+      <c r="N715" s="3"/>
+      <c r="O715" s="3"/>
+      <c r="P715" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B716" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C716" s="3"/>
+      <c r="D716" s="10">
+        <v>778478</v>
+      </c>
+      <c r="E716" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F716" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G716" s="3"/>
+      <c r="H716" s="3"/>
+      <c r="I716" s="2">
+        <v>1</v>
+      </c>
+      <c r="J716" s="2">
+        <v>10</v>
+      </c>
+      <c r="K716" s="3"/>
+      <c r="L716" s="3"/>
+      <c r="M716" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N716" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O716" s="3"/>
+      <c r="P716" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B717" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C717" s="3"/>
+      <c r="D717" s="10">
+        <v>40174735</v>
+      </c>
+      <c r="E717" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F717" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G717" s="3"/>
+      <c r="H717" s="3"/>
+      <c r="I717" s="2">
+        <v>1</v>
+      </c>
+      <c r="J717" s="2">
+        <v>10</v>
+      </c>
+      <c r="K717" s="3"/>
+      <c r="L717" s="3"/>
+      <c r="M717" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N717" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O717" s="3"/>
+      <c r="P717" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B718" s="2">
+        <v>100003</v>
+      </c>
+      <c r="C718" s="3"/>
+      <c r="D718" s="10">
+        <v>751412</v>
+      </c>
+      <c r="E718" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F718" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G718" s="3"/>
+      <c r="H718" s="3"/>
+      <c r="I718" s="3"/>
+      <c r="J718" s="3"/>
+      <c r="K718" s="3"/>
+      <c r="L718" s="3"/>
+      <c r="M718" s="3"/>
+      <c r="N718" s="3"/>
+      <c r="O718" s="3"/>
+      <c r="P718" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B719" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C719" s="2">
+        <v>1960</v>
+      </c>
+      <c r="D719" s="3"/>
+      <c r="E719" s="3"/>
+      <c r="F719" s="3"/>
+      <c r="G719" s="3"/>
+      <c r="H719" s="3"/>
+      <c r="I719" s="3"/>
+      <c r="J719" s="3"/>
+      <c r="K719" s="2">
+        <v>1</v>
+      </c>
+      <c r="L719" s="2">
+        <v>1</v>
+      </c>
+      <c r="M719" s="3"/>
+      <c r="N719" s="3"/>
+      <c r="O719" s="2">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B720" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C720" s="3"/>
+      <c r="D720" s="3"/>
+      <c r="E720" s="5">
+        <v>44317</v>
+      </c>
+      <c r="F720" s="5">
+        <v>44323</v>
+      </c>
+      <c r="G720" s="3"/>
+      <c r="H720" s="2">
+        <v>9201</v>
+      </c>
+      <c r="I720" s="3"/>
+      <c r="J720" s="3"/>
+      <c r="K720" s="3"/>
+      <c r="L720" s="3"/>
+      <c r="M720" s="3"/>
+      <c r="N720" s="3"/>
+      <c r="O720" s="3"/>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B721" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C721" s="3"/>
+      <c r="D721" s="10">
+        <v>778474</v>
+      </c>
+      <c r="E721" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F721" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G721" s="3"/>
+      <c r="H721" s="3"/>
+      <c r="I721" s="3"/>
+      <c r="J721" s="3"/>
+      <c r="K721" s="3"/>
+      <c r="L721" s="3"/>
+      <c r="M721" s="3"/>
+      <c r="N721" s="3"/>
+      <c r="O721" s="3"/>
+      <c r="P721" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B722" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C722" s="3"/>
+      <c r="D722" s="10">
+        <v>778478</v>
+      </c>
+      <c r="E722" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F722" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G722" s="3"/>
+      <c r="H722" s="3"/>
+      <c r="I722" s="2">
+        <v>1</v>
+      </c>
+      <c r="J722" s="2">
+        <v>10</v>
+      </c>
+      <c r="K722" s="3"/>
+      <c r="L722" s="3"/>
+      <c r="M722" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N722" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O722" s="3"/>
+      <c r="P722" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B723" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C723" s="3"/>
+      <c r="D723" s="10">
+        <v>40243565</v>
+      </c>
+      <c r="E723" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F723" s="5">
+        <v>44319</v>
+      </c>
+      <c r="G723" s="3"/>
+      <c r="H723" s="3"/>
+      <c r="I723" s="2">
+        <v>1</v>
+      </c>
+      <c r="J723" s="2">
+        <v>10</v>
+      </c>
+      <c r="K723" s="3"/>
+      <c r="L723" s="3"/>
+      <c r="M723" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N723" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O723" s="3"/>
+      <c r="P723" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B724" s="2">
+        <v>100004</v>
+      </c>
+      <c r="C724" s="3"/>
+      <c r="D724" s="10">
+        <v>1139993</v>
+      </c>
+      <c r="E724" s="5">
+        <v>44318</v>
+      </c>
+      <c r="F724" s="5">
+        <v>44318</v>
+      </c>
+      <c r="G724" s="3"/>
+      <c r="H724" s="3"/>
+      <c r="I724" s="3"/>
+      <c r="J724" s="3"/>
+      <c r="K724" s="3"/>
+      <c r="L724" s="3"/>
+      <c r="M724" s="3"/>
+      <c r="N724" s="3"/>
+      <c r="O724" s="3"/>
+      <c r="P724" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M487" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
